--- a/副本绩效考核表模板.xlsx
+++ b/副本绩效考核表模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malufe/Desktop/myBlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D951CAD-75C2-5A40-A5EA-058FFEB92617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20DFB5D-B5BA-DF4C-BCCA-56B421788372}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12520" yWindow="1140" windowWidth="30640" windowHeight="25960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="88">
   <si>
     <t>考核时间</t>
   </si>
@@ -228,10 +228,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>当月工作任务及目标（90分）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>迟到/早退情况（5分）</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -342,6 +338,26 @@
   </si>
   <si>
     <t>开发组</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月工作任务及目标（95分）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>迟到/早退情况（3分）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>120分内，不扣分；超过120分不满180分，扣50%；超过180分，该项为0</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假当月累计满3天，扣除30%；4天-6天扣50%，超过6天，该项不得分</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>出勤率（2分）</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -741,6 +757,54 @@
     <xf numFmtId="9" fontId="5" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -755,12 +819,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -786,9 +844,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -802,45 +857,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="7" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2029,16 +2045,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -2052,57 +2068,57 @@
       <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="55"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="42" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
+        <v>78</v>
+      </c>
+      <c r="B3" s="73"/>
+      <c r="C3" s="74"/>
       <c r="D3" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
+        <v>77</v>
+      </c>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="44"/>
+      <c r="H4" s="60"/>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="49"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="31" t="s">
         <v>12</v>
       </c>
@@ -2111,14 +2127,14 @@
       </c>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" ht="57.75" customHeight="1">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="48" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>50</v>
@@ -2138,16 +2154,16 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A7" s="66"/>
-      <c r="B7" s="74"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>51</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="23">
         <v>0.05</v>
@@ -2161,10 +2177,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A8" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="50" t="s">
+      <c r="A8" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="64" t="s">
         <v>53</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -2176,20 +2192,20 @@
       <c r="E8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="56">
+      <c r="F8" s="41">
         <v>0.05</v>
       </c>
-      <c r="G8" s="57">
+      <c r="G8" s="70">
         <v>0</v>
       </c>
-      <c r="H8" s="59">
+      <c r="H8" s="72">
         <f>ROUND(G8*F8,2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A9" s="66"/>
-      <c r="B9" s="51"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="13" t="s">
         <v>17</v>
       </c>
@@ -2199,15 +2215,15 @@
       <c r="E9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="56"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="59"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="72"/>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" ht="43.5" customHeight="1">
       <c r="A10" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="51"/>
+        <v>65</v>
+      </c>
+      <c r="B10" s="65"/>
       <c r="C10" s="13" t="s">
         <v>57</v>
       </c>
@@ -2229,12 +2245,12 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="65"/>
+      <c r="C11" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="13" t="s">
-        <v>69</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>22</v>
@@ -2254,65 +2270,65 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A12" s="66"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="66" t="s">
-        <v>70</v>
+      <c r="A12" s="44"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="44" t="s">
+        <v>69</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="41">
         <v>0.1</v>
       </c>
       <c r="G12" s="33">
         <v>0</v>
       </c>
-      <c r="H12" s="59">
+      <c r="H12" s="72">
         <f>ROUND((G12+G13+G14)*F12,2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="44.5" customHeight="1">
-      <c r="A13" s="66"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="66"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="56"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="33">
         <v>0</v>
       </c>
-      <c r="H13" s="59"/>
+      <c r="H13" s="72"/>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A14" s="66"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="66"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="56"/>
+      <c r="F14" s="41"/>
       <c r="G14" s="33">
         <v>0</v>
       </c>
-      <c r="H14" s="59"/>
+      <c r="H14" s="72"/>
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1" ht="38.5" customHeight="1">
-      <c r="A15" s="66"/>
-      <c r="B15" s="51"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="65"/>
       <c r="C15" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>29</v>
@@ -2332,10 +2348,10 @@
       </c>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" ht="42" customHeight="1">
-      <c r="A16" s="66"/>
-      <c r="B16" s="51"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>31</v>
@@ -2355,10 +2371,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1" ht="34">
-      <c r="A17" s="66"/>
-      <c r="B17" s="51"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>33</v>
@@ -2378,10 +2394,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1" ht="73.25" customHeight="1">
-      <c r="A18" s="66"/>
-      <c r="B18" s="51"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="65"/>
       <c r="C18" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>54</v>
@@ -2401,16 +2417,16 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="3" customFormat="1" ht="73.25" customHeight="1">
-      <c r="A19" s="66"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="71" t="s">
-        <v>75</v>
+      <c r="A19" s="44"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="45" t="s">
+        <v>74</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F19" s="15">
         <v>0.05</v>
@@ -2424,9 +2440,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" ht="50" customHeight="1">
-      <c r="A20" s="66"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="72"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="14" t="s">
         <v>36</v>
       </c>
@@ -2445,14 +2461,14 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="3" customFormat="1" ht="35.5" customHeight="1">
-      <c r="A21" s="66"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="72"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F21" s="15">
         <v>0.05</v>
@@ -2466,9 +2482,9 @@
       </c>
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" ht="73.25" customHeight="1">
-      <c r="A22" s="66"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="73"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="14" t="s">
         <v>38</v>
       </c>
@@ -2487,13 +2503,13 @@
       </c>
     </row>
     <row r="23" spans="1:8" s="3" customFormat="1" ht="28.25" customHeight="1">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
       <c r="F23" s="15">
         <f>SUM(F6:F22)</f>
         <v>1.0000000000000002</v>
@@ -2505,11 +2521,11 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="3" customFormat="1" ht="14.5" customHeight="1">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="14" t="s">
         <v>42</v>
       </c>
@@ -2526,9 +2542,9 @@
       </c>
     </row>
     <row r="25" spans="1:8" s="3" customFormat="1" ht="14.5" customHeight="1">
-      <c r="A25" s="66"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
       <c r="D25" s="14" t="s">
         <v>43</v>
       </c>
@@ -2545,11 +2561,11 @@
       </c>
     </row>
     <row r="26" spans="1:8" s="3" customFormat="1" ht="14.5" customHeight="1">
-      <c r="A26" s="66" t="s">
+      <c r="A26" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="14" t="s">
         <v>45</v>
       </c>
@@ -2566,9 +2582,9 @@
       </c>
     </row>
     <row r="27" spans="1:8" s="3" customFormat="1" ht="14.5" customHeight="1">
-      <c r="A27" s="66"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
       <c r="D27" s="14" t="s">
         <v>46</v>
       </c>
@@ -2585,14 +2601,14 @@
       </c>
     </row>
     <row r="28" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A28" s="67" t="s">
+      <c r="A28" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="69"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="55"/>
       <c r="G28" s="29">
         <f>SUM(G23:G27)</f>
         <v>0</v>
@@ -2603,30 +2619,30 @@
       </c>
     </row>
     <row r="29" spans="1:8" s="3" customFormat="1" ht="156.75" customHeight="1">
-      <c r="A29" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
+      <c r="A29" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
     </row>
     <row r="30" spans="1:8" ht="28" customHeight="1">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="64"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="51"/>
       <c r="E30" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
     </row>
     <row r="31" spans="1:8">
       <c r="G31" s="34"/>
@@ -6815,21 +6831,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A22"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="A24:C25"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A26:C27"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
@@ -6846,6 +6847,21 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="A24:C25"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A26:C27"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A22"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6857,13 +6873,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1413"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="42.83203125" style="6" customWidth="1"/>
@@ -7694,16 +7710,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1">
-      <c r="A1" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="A1" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -7717,61 +7733,61 @@
       <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="55"/>
+      <c r="F2" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="68"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="42" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="61"/>
+        <v>78</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="74"/>
       <c r="D3" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
+        <v>77</v>
+      </c>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="44"/>
+      <c r="H4" s="60"/>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="49"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="31" t="s">
         <v>12</v>
       </c>
@@ -7780,23 +7796,23 @@
       </c>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" ht="57.75" customHeight="1">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="48" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>50</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="F6" s="37">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G6" s="32">
         <v>0</v>
@@ -7807,19 +7823,19 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A7" s="66"/>
-      <c r="B7" s="74"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="22" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>51</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="F7" s="37">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="G7" s="32">
         <v>0</v>
@@ -7831,7 +7847,7 @@
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A8" s="75" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B8" s="75" t="s">
         <v>52</v>
@@ -7874,16 +7890,16 @@
       <c r="H10" s="27"/>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" ht="28.25" customHeight="1">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
       <c r="F11" s="37">
         <f>SUM(F6:F10)</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G11" s="33"/>
       <c r="H11" s="28">
@@ -7892,11 +7908,11 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" ht="14.5" customHeight="1">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="14" t="s">
         <v>42</v>
       </c>
@@ -7913,9 +7929,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="14.5" customHeight="1">
-      <c r="A13" s="66"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="14" t="s">
         <v>43</v>
       </c>
@@ -7932,11 +7948,11 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" ht="14.5" customHeight="1">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="14" t="s">
         <v>45</v>
       </c>
@@ -7953,9 +7969,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1" ht="14.5" customHeight="1">
-      <c r="A15" s="66"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="14" t="s">
         <v>46</v>
       </c>
@@ -7972,14 +7988,14 @@
       </c>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="69"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="55"/>
       <c r="G16" s="29">
         <f>SUM(G11:G15)</f>
         <v>0</v>
@@ -7990,32 +8006,32 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1" ht="156.75" customHeight="1">
-      <c r="A17" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
+      <c r="A17" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
     </row>
     <row r="18" spans="1:8" ht="28" customHeight="1">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="64"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="51"/>
       <c r="E18" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
     </row>
     <row r="19" spans="1:8">
       <c r="G19" s="34"/>
@@ -12204,6 +12220,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:C13"/>
+    <mergeCell ref="A14:C15"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A8:A10"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="B3:C3"/>
@@ -12214,19 +12243,6 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:C13"/>
-    <mergeCell ref="A14:C15"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:H18"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/副本绩效考核表模板.xlsx
+++ b/副本绩效考核表模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malufe/Desktop/myBlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20DFB5D-B5BA-DF4C-BCCA-56B421788372}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B05872-4A09-A543-9A99-AE07760B73FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12520" yWindow="1140" windowWidth="30640" windowHeight="25960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="90">
   <si>
     <t>考核时间</t>
   </si>
@@ -190,10 +190,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>直属主管评分</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>直属领导</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -341,10 +337,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>当月工作任务及目标（95分）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>迟到/早退情况（3分）</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -358,6 +350,20 @@
   </si>
   <si>
     <t>出勤率（2分）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月工作任务及目标（95分）</t>
+  </si>
+  <si>
+    <t>直属主管评分</t>
+  </si>
+  <si>
+    <t>scada重制</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>原Scada项目重构</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -633,7 +639,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -739,71 +745,11 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -819,6 +765,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -844,6 +796,9 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -859,8 +814,68 @@
     <xf numFmtId="178" fontId="7" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2045,16 +2060,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -2068,34 +2083,34 @@
       <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="51"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="42" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="74"/>
+        <v>77</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
+        <v>76</v>
+      </c>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="44" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="42" t="s">
@@ -2104,21 +2119,21 @@
       <c r="E4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="60"/>
+      <c r="H4" s="40"/>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
-      <c r="F5" s="63"/>
+      <c r="F5" s="45"/>
       <c r="G5" s="31" t="s">
         <v>12</v>
       </c>
@@ -2127,20 +2142,20 @@
       </c>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" ht="57.75" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="C6" s="20" t="s">
         <v>60</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>61</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>50</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="23">
         <v>0.05</v>
@@ -2154,16 +2169,16 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A7" s="44"/>
-      <c r="B7" s="48"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>51</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7" s="23">
         <v>0.05</v>
@@ -2177,11 +2192,11 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A8" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="64" t="s">
-        <v>53</v>
+      <c r="A8" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>52</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>14</v>
@@ -2192,20 +2207,20 @@
       <c r="E8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="52">
         <v>0.05</v>
       </c>
-      <c r="G8" s="70">
+      <c r="G8" s="53">
         <v>0</v>
       </c>
-      <c r="H8" s="72">
+      <c r="H8" s="55">
         <f>ROUND(G8*F8,2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A9" s="44"/>
-      <c r="B9" s="65"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="13" t="s">
         <v>17</v>
       </c>
@@ -2215,17 +2230,17 @@
       <c r="E9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="72"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="55"/>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" ht="43.5" customHeight="1">
       <c r="A10" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="65"/>
+        <v>64</v>
+      </c>
+      <c r="B10" s="47"/>
       <c r="C10" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>20</v>
@@ -2245,12 +2260,12 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="47"/>
+      <c r="C11" s="13" t="s">
         <v>67</v>
-      </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="13" t="s">
-        <v>68</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>22</v>
@@ -2270,65 +2285,65 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A12" s="44"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="44" t="s">
-        <v>69</v>
+      <c r="A12" s="62"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="62" t="s">
+        <v>68</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="52">
         <v>0.1</v>
       </c>
       <c r="G12" s="33">
         <v>0</v>
       </c>
-      <c r="H12" s="72">
+      <c r="H12" s="55">
         <f>ROUND((G12+G13+G14)*F12,2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="44.5" customHeight="1">
-      <c r="A13" s="44"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="44"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="41"/>
+      <c r="F13" s="52"/>
       <c r="G13" s="33">
         <v>0</v>
       </c>
-      <c r="H13" s="72"/>
+      <c r="H13" s="55"/>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A14" s="44"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="44"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="41"/>
+      <c r="F14" s="52"/>
       <c r="G14" s="33">
         <v>0</v>
       </c>
-      <c r="H14" s="72"/>
+      <c r="H14" s="55"/>
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1" ht="38.5" customHeight="1">
-      <c r="A15" s="44"/>
-      <c r="B15" s="65"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>29</v>
@@ -2348,10 +2363,10 @@
       </c>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" ht="42" customHeight="1">
-      <c r="A16" s="44"/>
-      <c r="B16" s="65"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>31</v>
@@ -2371,10 +2386,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1" ht="34">
-      <c r="A17" s="44"/>
-      <c r="B17" s="65"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>33</v>
@@ -2394,16 +2409,16 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1" ht="73.25" customHeight="1">
-      <c r="A18" s="44"/>
-      <c r="B18" s="65"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>54</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>55</v>
       </c>
       <c r="F18" s="15">
         <v>0.05</v>
@@ -2417,16 +2432,16 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="3" customFormat="1" ht="73.25" customHeight="1">
-      <c r="A19" s="44"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="45" t="s">
-        <v>74</v>
+      <c r="A19" s="62"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="67" t="s">
+        <v>73</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F19" s="15">
         <v>0.05</v>
@@ -2440,9 +2455,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" ht="50" customHeight="1">
-      <c r="A20" s="44"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="46"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="14" t="s">
         <v>36</v>
       </c>
@@ -2461,14 +2476,14 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="3" customFormat="1" ht="35.5" customHeight="1">
-      <c r="A21" s="44"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="46"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F21" s="15">
         <v>0.05</v>
@@ -2482,9 +2497,9 @@
       </c>
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" ht="73.25" customHeight="1">
-      <c r="A22" s="44"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="47"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="69"/>
       <c r="D22" s="14" t="s">
         <v>38</v>
       </c>
@@ -2503,13 +2518,13 @@
       </c>
     </row>
     <row r="23" spans="1:8" s="3" customFormat="1" ht="28.25" customHeight="1">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
       <c r="F23" s="15">
         <f>SUM(F6:F22)</f>
         <v>1.0000000000000002</v>
@@ -2521,11 +2536,11 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="3" customFormat="1" ht="14.5" customHeight="1">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="14" t="s">
         <v>42</v>
       </c>
@@ -2542,9 +2557,9 @@
       </c>
     </row>
     <row r="25" spans="1:8" s="3" customFormat="1" ht="14.5" customHeight="1">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="14" t="s">
         <v>43</v>
       </c>
@@ -2561,11 +2576,11 @@
       </c>
     </row>
     <row r="26" spans="1:8" s="3" customFormat="1" ht="14.5" customHeight="1">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="14" t="s">
         <v>45</v>
       </c>
@@ -2582,9 +2597,9 @@
       </c>
     </row>
     <row r="27" spans="1:8" s="3" customFormat="1" ht="14.5" customHeight="1">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
+      <c r="A27" s="62"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="14" t="s">
         <v>46</v>
       </c>
@@ -2601,14 +2616,14 @@
       </c>
     </row>
     <row r="28" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="55"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="65"/>
       <c r="G28" s="29">
         <f>SUM(G23:G27)</f>
         <v>0</v>
@@ -2619,30 +2634,30 @@
       </c>
     </row>
     <row r="29" spans="1:8" s="3" customFormat="1" ht="156.75" customHeight="1">
-      <c r="A29" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
+      <c r="A29" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
     </row>
     <row r="30" spans="1:8" ht="28" customHeight="1">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="51"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="60"/>
       <c r="E30" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
     </row>
     <row r="31" spans="1:8">
       <c r="G31" s="34"/>
@@ -6831,6 +6846,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A22"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="A24:C25"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A26:C27"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
@@ -6847,21 +6877,6 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="A24:C25"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A26:C27"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A22"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6871,10 +6886,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1413"/>
+  <dimension ref="A1:H1411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="17"/>
@@ -7710,16 +7725,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1">
-      <c r="A1" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
+      <c r="A1" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -7733,38 +7748,38 @@
       <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69"/>
+      <c r="F2" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="50"/>
+      <c r="H2" s="51"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="42" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="74"/>
+        <v>77</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="57"/>
       <c r="D3" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
+        <v>76</v>
+      </c>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="44" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="42" t="s">
@@ -7773,21 +7788,21 @@
       <c r="E4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="60"/>
+      <c r="H4" s="40"/>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
-      <c r="F5" s="63"/>
+      <c r="F5" s="45"/>
       <c r="G5" s="31" t="s">
         <v>12</v>
       </c>
@@ -7796,22 +7811,22 @@
       </c>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" ht="57.75" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="48" t="s">
-        <v>60</v>
-      </c>
       <c r="C6" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>50</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="37">
+        <v>83</v>
+      </c>
+      <c r="F6" s="35">
         <v>0.03</v>
       </c>
       <c r="G6" s="32">
@@ -7823,18 +7838,18 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A7" s="44"/>
-      <c r="B7" s="48"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>51</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="37">
+        <v>84</v>
+      </c>
+      <c r="F7" s="35">
         <v>0.02</v>
       </c>
       <c r="G7" s="32">
@@ -7845,80 +7860,96 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A8" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="75" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="33">
+    <row r="8" spans="1:8" s="77" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A8" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="78">
+        <v>0.95</v>
+      </c>
+      <c r="F8" s="74"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="76"/>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1" ht="28.25" customHeight="1">
+      <c r="A9" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="35">
+        <f>SUM(F6:F8)</f>
+        <v>0.05</v>
+      </c>
+      <c r="G9" s="33"/>
+      <c r="H9" s="28">
+        <f>SUM(H6:H8)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="27">
-        <f>ROUND(G8*F8,2)</f>
+    </row>
+    <row r="10" spans="1:8" s="3" customFormat="1" ht="14.5" customHeight="1">
+      <c r="A10" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="33">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A9" s="75"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="33">
+      <c r="H10" s="27">
+        <f>ROUND(G10*F10,2)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="27">
-        <f>ROUND(G9*F9,2)</f>
+    </row>
+    <row r="11" spans="1:8" s="3" customFormat="1" ht="14.5" customHeight="1">
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="33">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" ht="40" customHeight="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="27"/>
-    </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" ht="28.25" customHeight="1">
-      <c r="A11" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="37">
-        <f>SUM(F6:F10)</f>
-        <v>0.05</v>
-      </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="28">
-        <f>SUM(H6:H10)</f>
+      <c r="H11" s="27">
+        <f>ROUND(G11*F11,2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" ht="14.5" customHeight="1">
-      <c r="A12" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
+      <c r="A12" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="25">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="G12" s="33">
         <v>0</v>
@@ -7929,15 +7960,15 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="14.5" customHeight="1">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="25">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="G13" s="33">
         <v>0</v>
@@ -7947,132 +7978,98 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" ht="14.5" customHeight="1">
-      <c r="A14" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="25">
-        <v>-0.1</v>
-      </c>
-      <c r="G14" s="33">
+    <row r="14" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A14" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="29">
+        <f>SUM(G9:G13)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="27">
-        <f>ROUND(G14*F14,2)</f>
+      <c r="H14" s="29">
+        <f>SUM(H9:H13)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" ht="14.5" customHeight="1">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="25">
-        <v>-0.1</v>
-      </c>
-      <c r="G15" s="33">
-        <v>0</v>
-      </c>
-      <c r="H15" s="27">
-        <f>ROUND(G15*F15,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="29">
-        <f>SUM(G11:G15)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="29">
-        <f>SUM(H11:H15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" ht="156.75" customHeight="1">
-      <c r="A17" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-    </row>
-    <row r="18" spans="1:8" ht="28" customHeight="1">
-      <c r="A18" s="49" t="s">
+    <row r="15" spans="1:8" s="3" customFormat="1" ht="156.75" customHeight="1">
+      <c r="A15" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+    </row>
+    <row r="16" spans="1:8" ht="28" customHeight="1">
+      <c r="A16" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="19" t="s">
+      <c r="B16" s="58"/>
+      <c r="C16" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="60"/>
+      <c r="E16" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" s="34"/>
+    </row>
+    <row r="18" spans="7:7">
+      <c r="G18" s="34"/>
+    </row>
+    <row r="19" spans="7:7">
       <c r="G19" s="34"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="7:7">
       <c r="G20" s="34"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="7:7">
       <c r="G21" s="34"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="7:7">
       <c r="G22" s="34"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="7:7">
       <c r="G23" s="34"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="7:7">
       <c r="G24" s="34"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="7:7">
       <c r="G25" s="34"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="7:7">
       <c r="G26" s="34"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="7:7">
       <c r="G27" s="34"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="7:7">
       <c r="G28" s="34"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="7:7">
       <c r="G29" s="34"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="7:7">
       <c r="G30" s="34"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="7:7">
       <c r="G31" s="34"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="7:7">
       <c r="G32" s="34"/>
     </row>
     <row r="33" spans="7:7">
@@ -12212,27 +12209,8 @@
     <row r="1411" spans="7:7">
       <c r="G1411" s="34"/>
     </row>
-    <row r="1412" spans="7:7">
-      <c r="G1412" s="34"/>
-    </row>
-    <row r="1413" spans="7:7">
-      <c r="G1413" s="34"/>
-    </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:C13"/>
-    <mergeCell ref="A14:C15"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A8:A10"/>
+  <mergeCells count="21">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="B3:C3"/>
@@ -12243,6 +12221,17 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:C11"/>
+    <mergeCell ref="A12:C13"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:H16"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
